--- a/templates/danh_sach_phong.xlsx
+++ b/templates/danh_sach_phong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nodejs\phan-chia-phong-ktx\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Document\AnhDucUni\phan-chia-phong-ktx\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B430D548-6436-4FB7-BA07-1775CEECF95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B5A336-A588-4596-8E9B-79A5FA52BF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="1215" windowWidth="19455" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hòa lạc" sheetId="9" r:id="rId1"/>
@@ -21,17 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hòa lạc'!$B$1:$G$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1196,9 +1185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1236,7 +1225,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1342,7 +1331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1484,7 +1473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1495,7 +1484,7 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
